--- a/Hotel kamers plus prices v0.2.xlsx
+++ b/Hotel kamers plus prices v0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANSAID\Documents\Software track project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B7AE75-A9EF-4F2A-B55B-59A950CEBD88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8ECCF-04D9-47F6-A2F3-DBC63A1F72A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{159596B7-B20F-4450-9AD4-0E1557652CEB}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>2 Double bed, 1 single bed, 1 baby bed</t>
   </si>
   <si>
-    <t>2 Double bed, 4 single, 2 baby bed</t>
+    <t>2 x Double bed, 4 singles, 2 baby beds</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,7 +1989,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,7 +2832,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Hotel kamers plus prices v0.2.xlsx
+++ b/Hotel kamers plus prices v0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANSAID\Documents\Software track project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8ECCF-04D9-47F6-A2F3-DBC63A1F72A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271C789D-23F6-4661-972F-4E4D11BDCAB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{159596B7-B20F-4450-9AD4-0E1557652CEB}"/>
+    <workbookView xWindow="-8244" yWindow="924" windowWidth="17280" windowHeight="8964" xr2:uid="{159596B7-B20F-4450-9AD4-0E1557652CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="17">
   <si>
     <t>Room</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>2 x Double bed, 4 singles, 2 baby beds</t>
+  </si>
+  <si>
+    <t>2 Double bed 1 single bed, 1 baby bed</t>
   </si>
 </sst>
 </file>
@@ -496,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8CD91-A250-412E-A410-9498D2CC0ED0}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,7 +1992,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2627,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="6">
@@ -2831,7 +2834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA92761-F631-4346-97BE-E63936928100}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
